--- a/data/rw/2025录取.xlsx
+++ b/data/rw/2025录取.xlsx
@@ -504,10 +504,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>408.00</t>
-        </is>
+      <c r="E2" t="n">
+        <v>408</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -550,10 +548,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>416.00</t>
-        </is>
+      <c r="E3" t="n">
+        <v>416</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -596,10 +592,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>411.00</t>
-        </is>
+      <c r="E4" t="n">
+        <v>411</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -642,10 +636,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>408.00</t>
-        </is>
+      <c r="E5" t="n">
+        <v>408</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,10 +680,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>424.00</t>
-        </is>
+      <c r="E6" t="n">
+        <v>424</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -734,10 +724,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>417.00</t>
-        </is>
+      <c r="E7" t="n">
+        <v>417</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -780,10 +768,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>395.00</t>
-        </is>
+      <c r="E8" t="n">
+        <v>395</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -826,10 +812,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>407.00</t>
-        </is>
+      <c r="E9" t="n">
+        <v>407</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -872,10 +856,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>406.00</t>
-        </is>
+      <c r="E10" t="n">
+        <v>406</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -918,10 +900,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>407.00</t>
-        </is>
+      <c r="E11" t="n">
+        <v>407</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -964,10 +944,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>404.00</t>
-        </is>
+      <c r="E12" t="n">
+        <v>404</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,10 +988,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>388.00</t>
-        </is>
+      <c r="E13" t="n">
+        <v>388</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1056,10 +1032,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>403.00</t>
-        </is>
+      <c r="E14" t="n">
+        <v>403</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1102,10 +1076,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>403.00</t>
-        </is>
+      <c r="E15" t="n">
+        <v>403</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1148,10 +1120,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>409.00</t>
-        </is>
+      <c r="E16" t="n">
+        <v>409</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1194,10 +1164,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>401.00</t>
-        </is>
+      <c r="E17" t="n">
+        <v>401</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1240,10 +1208,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>406.00</t>
-        </is>
+      <c r="E18" t="n">
+        <v>406</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1286,10 +1252,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>418.00</t>
-        </is>
+      <c r="E19" t="n">
+        <v>418</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1332,10 +1296,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>399.00</t>
-        </is>
+      <c r="E20" t="n">
+        <v>399</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1378,10 +1340,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>400.00</t>
-        </is>
+      <c r="E21" t="n">
+        <v>400</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1424,10 +1384,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>398.00</t>
-        </is>
+      <c r="E22" t="n">
+        <v>398</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1470,10 +1428,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>409.00</t>
-        </is>
+      <c r="E23" t="n">
+        <v>409</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1516,10 +1472,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>394.00</t>
-        </is>
+      <c r="E24" t="n">
+        <v>394</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1562,10 +1516,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>407.00</t>
-        </is>
+      <c r="E25" t="n">
+        <v>407</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1608,10 +1560,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>408.00</t>
-        </is>
+      <c r="E26" t="n">
+        <v>408</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1654,10 +1604,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>406.00</t>
-        </is>
+      <c r="E27" t="n">
+        <v>406</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1700,10 +1648,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>400.00</t>
-        </is>
+      <c r="E28" t="n">
+        <v>400</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1746,10 +1692,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>411.00</t>
-        </is>
+      <c r="E29" t="n">
+        <v>411</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1792,10 +1736,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>400.00</t>
-        </is>
+      <c r="E30" t="n">
+        <v>400</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1838,10 +1780,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>402.00</t>
-        </is>
+      <c r="E31" t="n">
+        <v>402</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1884,10 +1824,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>403.00</t>
-        </is>
+      <c r="E32" t="n">
+        <v>403</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1930,10 +1868,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>393.00</t>
-        </is>
+      <c r="E33" t="n">
+        <v>393</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1976,10 +1912,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>399.00</t>
-        </is>
+      <c r="E34" t="n">
+        <v>399</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2022,10 +1956,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>398.00</t>
-        </is>
+      <c r="E35" t="n">
+        <v>398</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2068,10 +2000,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>413.00</t>
-        </is>
+      <c r="E36" t="n">
+        <v>413</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2114,10 +2044,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>394.00</t>
-        </is>
+      <c r="E37" t="n">
+        <v>394</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2160,10 +2088,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>398.00</t>
-        </is>
+      <c r="E38" t="n">
+        <v>398</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2206,10 +2132,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>393.00</t>
-        </is>
+      <c r="E39" t="n">
+        <v>393</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2252,10 +2176,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>398.00</t>
-        </is>
+      <c r="E40" t="n">
+        <v>398</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2298,10 +2220,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>397.00</t>
-        </is>
+      <c r="E41" t="n">
+        <v>397</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2344,10 +2264,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>394.00</t>
-        </is>
+      <c r="E42" t="n">
+        <v>394</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2390,10 +2308,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>400.00</t>
-        </is>
+      <c r="E43" t="n">
+        <v>400</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2436,10 +2352,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>389.00</t>
-        </is>
+      <c r="E44" t="n">
+        <v>389</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2482,10 +2396,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>391.00</t>
-        </is>
+      <c r="E45" t="n">
+        <v>391</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2528,10 +2440,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>390.00</t>
-        </is>
+      <c r="E46" t="n">
+        <v>390</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2574,10 +2484,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>394.00</t>
-        </is>
+      <c r="E47" t="n">
+        <v>394</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2620,10 +2528,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>393.00</t>
-        </is>
+      <c r="E48" t="n">
+        <v>393</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2666,10 +2572,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>398.00</t>
-        </is>
+      <c r="E49" t="n">
+        <v>398</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2712,10 +2616,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>384.00</t>
-        </is>
+      <c r="E50" t="n">
+        <v>384</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2758,10 +2660,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>394.00</t>
-        </is>
+      <c r="E51" t="n">
+        <v>394</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2804,10 +2704,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>401.00</t>
-        </is>
+      <c r="E52" t="n">
+        <v>401</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2850,10 +2748,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>399.00</t>
-        </is>
+      <c r="E53" t="n">
+        <v>399</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2896,10 +2792,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>392.00</t>
-        </is>
+      <c r="E54" t="n">
+        <v>392</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2942,10 +2836,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>395.00</t>
-        </is>
+      <c r="E55" t="n">
+        <v>395</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2988,10 +2880,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>388.00</t>
-        </is>
+      <c r="E56" t="n">
+        <v>388</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3034,10 +2924,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>394.00</t>
-        </is>
+      <c r="E57" t="n">
+        <v>394</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3080,10 +2968,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>397.00</t>
-        </is>
+      <c r="E58" t="n">
+        <v>397</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3126,10 +3012,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>394.00</t>
-        </is>
+      <c r="E59" t="n">
+        <v>394</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3172,10 +3056,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>400.00</t>
-        </is>
+      <c r="E60" t="n">
+        <v>400</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3218,10 +3100,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>393.00</t>
-        </is>
+      <c r="E61" t="n">
+        <v>393</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3264,10 +3144,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>385.00</t>
-        </is>
+      <c r="E62" t="n">
+        <v>385</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3310,10 +3188,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>393.00</t>
-        </is>
+      <c r="E63" t="n">
+        <v>393</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3356,10 +3232,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>392.00</t>
-        </is>
+      <c r="E64" t="n">
+        <v>392</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3402,10 +3276,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>390.00</t>
-        </is>
+      <c r="E65" t="n">
+        <v>390</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3448,10 +3320,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>396.00</t>
-        </is>
+      <c r="E66" t="n">
+        <v>396</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3494,10 +3364,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>383.00</t>
-        </is>
+      <c r="E67" t="n">
+        <v>383</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3540,10 +3408,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>391.00</t>
-        </is>
+      <c r="E68" t="n">
+        <v>391</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3586,10 +3452,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>396.00</t>
-        </is>
+      <c r="E69" t="n">
+        <v>396</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3632,10 +3496,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>405.00</t>
-        </is>
+      <c r="E70" t="n">
+        <v>405</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3678,10 +3540,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>406.00</t>
-        </is>
+      <c r="E71" t="n">
+        <v>406</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3724,10 +3584,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>378.00</t>
-        </is>
+      <c r="E72" t="n">
+        <v>378</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3770,10 +3628,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>379.00</t>
-        </is>
+      <c r="E73" t="n">
+        <v>379</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3816,10 +3672,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>393.00</t>
-        </is>
+      <c r="E74" t="n">
+        <v>393</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3862,10 +3716,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>382.00</t>
-        </is>
+      <c r="E75" t="n">
+        <v>382</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3908,10 +3760,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>378.00</t>
-        </is>
+      <c r="E76" t="n">
+        <v>378</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3954,10 +3804,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>378.00</t>
-        </is>
+      <c r="E77" t="n">
+        <v>378</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -4000,10 +3848,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>380.00</t>
-        </is>
+      <c r="E78" t="n">
+        <v>380</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4046,10 +3892,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>379.00</t>
-        </is>
+      <c r="E79" t="n">
+        <v>379</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4092,10 +3936,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>403.00</t>
-        </is>
+      <c r="E80" t="n">
+        <v>403</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4138,10 +3980,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>402.00</t>
-        </is>
+      <c r="E81" t="n">
+        <v>402</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4184,10 +4024,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>395.00</t>
-        </is>
+      <c r="E82" t="n">
+        <v>395</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4230,10 +4068,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>390.00</t>
-        </is>
+      <c r="E83" t="n">
+        <v>390</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4276,10 +4112,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>390.00</t>
-        </is>
+      <c r="E84" t="n">
+        <v>390</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4322,10 +4156,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>394.00</t>
-        </is>
+      <c r="E85" t="n">
+        <v>394</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4368,10 +4200,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>387.00</t>
-        </is>
+      <c r="E86" t="n">
+        <v>387</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4414,10 +4244,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>368.00</t>
-        </is>
+      <c r="E87" t="n">
+        <v>368</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4466,10 +4294,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>392.00</t>
-        </is>
+      <c r="E88" t="n">
+        <v>392</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4512,10 +4338,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>391.00</t>
-        </is>
+      <c r="E89" t="n">
+        <v>391</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4558,10 +4382,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>391.00</t>
-        </is>
+      <c r="E90" t="n">
+        <v>391</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4604,10 +4426,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>385.00</t>
-        </is>
+      <c r="E91" t="n">
+        <v>385</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4650,10 +4470,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>385.00</t>
-        </is>
+      <c r="E92" t="n">
+        <v>385</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4696,10 +4514,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>375.00</t>
-        </is>
+      <c r="E93" t="n">
+        <v>375</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4742,10 +4558,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>383.00</t>
-        </is>
+      <c r="E94" t="n">
+        <v>383</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4788,10 +4602,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>387.00</t>
-        </is>
+      <c r="E95" t="n">
+        <v>387</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4834,10 +4646,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>383.00</t>
-        </is>
+      <c r="E96" t="n">
+        <v>383</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4880,10 +4690,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>390.00</t>
-        </is>
+      <c r="E97" t="n">
+        <v>390</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4926,10 +4734,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>376.00</t>
-        </is>
+      <c r="E98" t="n">
+        <v>376</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4972,10 +4778,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>376.00</t>
-        </is>
+      <c r="E99" t="n">
+        <v>376</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5018,10 +4822,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>371.00</t>
-        </is>
+      <c r="E100" t="n">
+        <v>371</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5064,10 +4866,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>381.00</t>
-        </is>
+      <c r="E101" t="n">
+        <v>381</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -5110,10 +4910,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>390.00</t>
-        </is>
+      <c r="E102" t="n">
+        <v>390</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5156,10 +4954,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>390.00</t>
-        </is>
+      <c r="E103" t="n">
+        <v>390</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5202,10 +4998,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>400.00</t>
-        </is>
+      <c r="E104" t="n">
+        <v>400</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5248,10 +5042,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>396.00</t>
-        </is>
+      <c r="E105" t="n">
+        <v>396</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5294,10 +5086,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>389.00</t>
-        </is>
+      <c r="E106" t="n">
+        <v>389</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -5340,10 +5130,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>381.00</t>
-        </is>
+      <c r="E107" t="n">
+        <v>381</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -5386,10 +5174,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>395.00</t>
-        </is>
+      <c r="E108" t="n">
+        <v>395</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -5432,10 +5218,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>381.00</t>
-        </is>
+      <c r="E109" t="n">
+        <v>381</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5478,10 +5262,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E110" t="n">
+        <v>364</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5524,10 +5306,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>406.00</t>
-        </is>
+      <c r="E111" t="n">
+        <v>406</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5570,10 +5350,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>380.00</t>
-        </is>
+      <c r="E112" t="n">
+        <v>380</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5616,10 +5394,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>387.00</t>
-        </is>
+      <c r="E113" t="n">
+        <v>387</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5662,10 +5438,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>387.00</t>
-        </is>
+      <c r="E114" t="n">
+        <v>387</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5708,10 +5482,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>373.00</t>
-        </is>
+      <c r="E115" t="n">
+        <v>373</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5754,10 +5526,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>379.00</t>
-        </is>
+      <c r="E116" t="n">
+        <v>379</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5800,10 +5570,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>365.00</t>
-        </is>
+      <c r="E117" t="n">
+        <v>365</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5846,10 +5614,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>365.00</t>
-        </is>
+      <c r="E118" t="n">
+        <v>365</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5892,10 +5658,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>382.00</t>
-        </is>
+      <c r="E119" t="n">
+        <v>382</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5938,10 +5702,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>365.00</t>
-        </is>
+      <c r="E120" t="n">
+        <v>365</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5984,10 +5746,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>381.00</t>
-        </is>
+      <c r="E121" t="n">
+        <v>381</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -6030,10 +5790,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>381.00</t>
-        </is>
+      <c r="E122" t="n">
+        <v>381</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -6076,10 +5834,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E123" t="n">
+        <v>364</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -6122,10 +5878,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>374.00</t>
-        </is>
+      <c r="E124" t="n">
+        <v>374</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -6168,10 +5922,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>376.00</t>
-        </is>
+      <c r="E125" t="n">
+        <v>376</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -6214,10 +5966,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>384.00</t>
-        </is>
+      <c r="E126" t="n">
+        <v>384</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6260,10 +6010,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>383.00</t>
-        </is>
+      <c r="E127" t="n">
+        <v>383</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -6306,10 +6054,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>379.00</t>
-        </is>
+      <c r="E128" t="n">
+        <v>379</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -6352,10 +6098,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>383.00</t>
-        </is>
+      <c r="E129" t="n">
+        <v>383</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6398,10 +6142,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>386.00</t>
-        </is>
+      <c r="E130" t="n">
+        <v>386</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -6444,10 +6186,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>375.00</t>
-        </is>
+      <c r="E131" t="n">
+        <v>375</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -6490,10 +6230,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>375.00</t>
-        </is>
+      <c r="E132" t="n">
+        <v>375</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6536,10 +6274,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>377.00</t>
-        </is>
+      <c r="E133" t="n">
+        <v>377</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -6582,10 +6318,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>380.00</t>
-        </is>
+      <c r="E134" t="n">
+        <v>380</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6628,10 +6362,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>384.00</t>
-        </is>
+      <c r="E135" t="n">
+        <v>384</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -6674,10 +6406,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>384.00</t>
-        </is>
+      <c r="E136" t="n">
+        <v>384</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6720,10 +6450,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>380.00</t>
-        </is>
+      <c r="E137" t="n">
+        <v>380</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -6766,10 +6494,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>381.00</t>
-        </is>
+      <c r="E138" t="n">
+        <v>381</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6812,10 +6538,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>382.00</t>
-        </is>
+      <c r="E139" t="n">
+        <v>382</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6858,10 +6582,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>374.00</t>
-        </is>
+      <c r="E140" t="n">
+        <v>374</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6904,10 +6626,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>383.00</t>
-        </is>
+      <c r="E141" t="n">
+        <v>383</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6950,10 +6670,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>378.00</t>
-        </is>
+      <c r="E142" t="n">
+        <v>378</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6996,10 +6714,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>378.00</t>
-        </is>
+      <c r="E143" t="n">
+        <v>378</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7042,10 +6758,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>384.00</t>
-        </is>
+      <c r="E144" t="n">
+        <v>384</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -7088,10 +6802,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>386.00</t>
-        </is>
+      <c r="E145" t="n">
+        <v>386</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -7134,10 +6846,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>381.00</t>
-        </is>
+      <c r="E146" t="n">
+        <v>381</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -7180,10 +6890,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>366.00</t>
-        </is>
+      <c r="E147" t="n">
+        <v>366</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -7226,10 +6934,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>387.00</t>
-        </is>
+      <c r="E148" t="n">
+        <v>387</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -7272,10 +6978,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>365.00</t>
-        </is>
+      <c r="E149" t="n">
+        <v>365</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -7318,10 +7022,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>365.00</t>
-        </is>
+      <c r="E150" t="n">
+        <v>365</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -7364,10 +7066,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>372.00</t>
-        </is>
+      <c r="E151" t="n">
+        <v>372</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -7410,10 +7110,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>388.00</t>
-        </is>
+      <c r="E152" t="n">
+        <v>388</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7456,10 +7154,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>383.00</t>
-        </is>
+      <c r="E153" t="n">
+        <v>383</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -7502,10 +7198,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>383.00</t>
-        </is>
+      <c r="E154" t="n">
+        <v>383</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -7548,10 +7242,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>384.00</t>
-        </is>
+      <c r="E155" t="n">
+        <v>384</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -7594,10 +7286,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E156" t="n">
+        <v>364</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -7640,10 +7330,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>391.00</t>
-        </is>
+      <c r="E157" t="n">
+        <v>391</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -7686,10 +7374,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>376.00</t>
-        </is>
+      <c r="E158" t="n">
+        <v>376</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -7732,10 +7418,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>375.00</t>
-        </is>
+      <c r="E159" t="n">
+        <v>375</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -7778,10 +7462,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>385.00</t>
-        </is>
+      <c r="E160" t="n">
+        <v>385</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -7824,10 +7506,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>381.00</t>
-        </is>
+      <c r="E161" t="n">
+        <v>381</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -7870,10 +7550,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>372.00</t>
-        </is>
+      <c r="E162" t="n">
+        <v>372</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7916,10 +7594,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>375.00</t>
-        </is>
+      <c r="E163" t="n">
+        <v>375</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7962,10 +7638,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>381.00</t>
-        </is>
+      <c r="E164" t="n">
+        <v>381</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -8008,10 +7682,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>368.00</t>
-        </is>
+      <c r="E165" t="n">
+        <v>368</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -8054,10 +7726,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>378.00</t>
-        </is>
+      <c r="E166" t="n">
+        <v>378</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -8100,10 +7770,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>386.00</t>
-        </is>
+      <c r="E167" t="n">
+        <v>386</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -8146,10 +7814,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>371.00</t>
-        </is>
+      <c r="E168" t="n">
+        <v>371</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -8192,10 +7858,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>365.00</t>
-        </is>
+      <c r="E169" t="n">
+        <v>365</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -8238,10 +7902,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>371.00</t>
-        </is>
+      <c r="E170" t="n">
+        <v>371</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -8284,10 +7946,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>361.00</t>
-        </is>
+      <c r="E171" t="n">
+        <v>361</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -8330,10 +7990,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>370.00</t>
-        </is>
+      <c r="E172" t="n">
+        <v>370</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -8376,10 +8034,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>360.00</t>
-        </is>
+      <c r="E173" t="n">
+        <v>360</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -8422,10 +8078,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>388.00</t>
-        </is>
+      <c r="E174" t="n">
+        <v>388</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -8468,10 +8122,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>380.00</t>
-        </is>
+      <c r="E175" t="n">
+        <v>380</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -8514,10 +8166,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>374.00</t>
-        </is>
+      <c r="E176" t="n">
+        <v>374</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -8560,10 +8210,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>371.00</t>
-        </is>
+      <c r="E177" t="n">
+        <v>371</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -8606,10 +8254,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>377.00</t>
-        </is>
+      <c r="E178" t="n">
+        <v>377</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -8652,10 +8298,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>376.00</t>
-        </is>
+      <c r="E179" t="n">
+        <v>376</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -8698,10 +8342,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>358.00</t>
-        </is>
+      <c r="E180" t="n">
+        <v>358</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -8744,10 +8386,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>378.00</t>
-        </is>
+      <c r="E181" t="n">
+        <v>378</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -8790,10 +8430,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>357.00</t>
-        </is>
+      <c r="E182" t="n">
+        <v>357</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -8836,10 +8474,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>383.00</t>
-        </is>
+      <c r="E183" t="n">
+        <v>383</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -8882,10 +8518,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>370.00</t>
-        </is>
+      <c r="E184" t="n">
+        <v>370</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -8928,10 +8562,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>369.00</t>
-        </is>
+      <c r="E185" t="n">
+        <v>369</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -8974,10 +8606,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>381.00</t>
-        </is>
+      <c r="E186" t="n">
+        <v>381</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -9020,10 +8650,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>379.00</t>
-        </is>
+      <c r="E187" t="n">
+        <v>379</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -9066,10 +8694,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>373.00</t>
-        </is>
+      <c r="E188" t="n">
+        <v>373</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -9112,10 +8738,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>376.00</t>
-        </is>
+      <c r="E189" t="n">
+        <v>376</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -9158,10 +8782,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>358.00</t>
-        </is>
+      <c r="E190" t="n">
+        <v>358</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -9204,10 +8826,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>353.00</t>
-        </is>
+      <c r="E191" t="n">
+        <v>353</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -9250,10 +8870,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>359.00</t>
-        </is>
+      <c r="E192" t="n">
+        <v>359</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -9296,10 +8914,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>379.00</t>
-        </is>
+      <c r="E193" t="n">
+        <v>379</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -9342,10 +8958,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>371.00</t>
-        </is>
+      <c r="E194" t="n">
+        <v>371</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -9388,10 +9002,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>366.00</t>
-        </is>
+      <c r="E195" t="n">
+        <v>366</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -9434,10 +9046,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>378.00</t>
-        </is>
+      <c r="E196" t="n">
+        <v>378</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -9480,10 +9090,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>372.00</t>
-        </is>
+      <c r="E197" t="n">
+        <v>372</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -9526,10 +9134,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>368.00</t>
-        </is>
+      <c r="E198" t="n">
+        <v>368</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -9572,10 +9178,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>372.00</t>
-        </is>
+      <c r="E199" t="n">
+        <v>372</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -9618,10 +9222,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>358.00</t>
-        </is>
+      <c r="E200" t="n">
+        <v>358</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -9664,10 +9266,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>380.00</t>
-        </is>
+      <c r="E201" t="n">
+        <v>380</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -9710,10 +9310,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>365.00</t>
-        </is>
+      <c r="E202" t="n">
+        <v>365</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -9756,10 +9354,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>374.00</t>
-        </is>
+      <c r="E203" t="n">
+        <v>374</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -9802,10 +9398,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>385.00</t>
-        </is>
+      <c r="E204" t="n">
+        <v>385</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -9848,10 +9442,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>369.00</t>
-        </is>
+      <c r="E205" t="n">
+        <v>369</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -9894,10 +9486,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>365.00</t>
-        </is>
+      <c r="E206" t="n">
+        <v>365</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -9940,10 +9530,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>377.00</t>
-        </is>
+      <c r="E207" t="n">
+        <v>377</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -9986,10 +9574,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>375.00</t>
-        </is>
+      <c r="E208" t="n">
+        <v>375</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -10032,10 +9618,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>374.00</t>
-        </is>
+      <c r="E209" t="n">
+        <v>374</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -10078,10 +9662,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>375.00</t>
-        </is>
+      <c r="E210" t="n">
+        <v>375</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -10124,10 +9706,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>376.00</t>
-        </is>
+      <c r="E211" t="n">
+        <v>376</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -10170,10 +9750,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>386.00</t>
-        </is>
+      <c r="E212" t="n">
+        <v>386</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -10216,10 +9794,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>378.00</t>
-        </is>
+      <c r="E213" t="n">
+        <v>378</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -10262,10 +9838,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>368.00</t>
-        </is>
+      <c r="E214" t="n">
+        <v>368</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -10308,10 +9882,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>366.00</t>
-        </is>
+      <c r="E215" t="n">
+        <v>366</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -10354,10 +9926,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>369.00</t>
-        </is>
+      <c r="E216" t="n">
+        <v>369</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -10400,10 +9970,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>371.00</t>
-        </is>
+      <c r="E217" t="n">
+        <v>371</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -10446,10 +10014,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>367.00</t>
-        </is>
+      <c r="E218" t="n">
+        <v>367</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -10492,10 +10058,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>383.00</t>
-        </is>
+      <c r="E219" t="n">
+        <v>383</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -10538,10 +10102,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>370.00</t>
-        </is>
+      <c r="E220" t="n">
+        <v>370</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -10584,10 +10146,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>382.00</t>
-        </is>
+      <c r="E221" t="n">
+        <v>382</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -10630,10 +10190,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>368.00</t>
-        </is>
+      <c r="E222" t="n">
+        <v>368</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -10676,10 +10234,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>351.00</t>
-        </is>
+      <c r="E223" t="n">
+        <v>351</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -10722,10 +10278,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>375.00</t>
-        </is>
+      <c r="E224" t="n">
+        <v>375</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -10768,10 +10322,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>373.00</t>
-        </is>
+      <c r="E225" t="n">
+        <v>373</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -10814,10 +10366,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>354.00</t>
-        </is>
+      <c r="E226" t="n">
+        <v>354</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -10860,10 +10410,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>370.00</t>
-        </is>
+      <c r="E227" t="n">
+        <v>370</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -10906,10 +10454,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>371.00</t>
-        </is>
+      <c r="E228" t="n">
+        <v>371</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -10952,10 +10498,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>371.00</t>
-        </is>
+      <c r="E229" t="n">
+        <v>371</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -10998,10 +10542,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>355.00</t>
-        </is>
+      <c r="E230" t="n">
+        <v>355</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -11044,10 +10586,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E231" t="n">
+        <v>364</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -11090,10 +10630,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>374.00</t>
-        </is>
+      <c r="E232" t="n">
+        <v>374</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -11136,10 +10674,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>360.00</t>
-        </is>
+      <c r="E233" t="n">
+        <v>360</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -11182,10 +10718,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>369.00</t>
-        </is>
+      <c r="E234" t="n">
+        <v>369</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -11228,10 +10762,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>357.00</t>
-        </is>
+      <c r="E235" t="n">
+        <v>357</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -11274,10 +10806,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>369.00</t>
-        </is>
+      <c r="E236" t="n">
+        <v>369</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11320,10 +10850,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>368.00</t>
-        </is>
+      <c r="E237" t="n">
+        <v>368</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11366,10 +10894,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E238" t="n">
+        <v>364</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11412,10 +10938,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>362.00</t>
-        </is>
+      <c r="E239" t="n">
+        <v>362</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -11458,10 +10982,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>367.00</t>
-        </is>
+      <c r="E240" t="n">
+        <v>367</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11504,10 +11026,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>373.00</t>
-        </is>
+      <c r="E241" t="n">
+        <v>373</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11550,10 +11070,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>367.00</t>
-        </is>
+      <c r="E242" t="n">
+        <v>367</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -11596,10 +11114,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>377.00</t>
-        </is>
+      <c r="E243" t="n">
+        <v>377</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -11642,10 +11158,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E244" t="n">
+        <v>364</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -11688,10 +11202,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>382.00</t>
-        </is>
+      <c r="E245" t="n">
+        <v>382</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -11734,10 +11246,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>370.00</t>
-        </is>
+      <c r="E246" t="n">
+        <v>370</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -11780,10 +11290,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>363.00</t>
-        </is>
+      <c r="E247" t="n">
+        <v>363</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -11826,10 +11334,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>367.00</t>
-        </is>
+      <c r="E248" t="n">
+        <v>367</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -11872,10 +11378,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>357.00</t>
-        </is>
+      <c r="E249" t="n">
+        <v>357</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -11918,10 +11422,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>363.00</t>
-        </is>
+      <c r="E250" t="n">
+        <v>363</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -11964,10 +11466,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>375.00</t>
-        </is>
+      <c r="E251" t="n">
+        <v>375</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -12010,10 +11510,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>360.00</t>
-        </is>
+      <c r="E252" t="n">
+        <v>360</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -12056,10 +11554,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>369.00</t>
-        </is>
+      <c r="E253" t="n">
+        <v>369</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -12102,10 +11598,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>367.00</t>
-        </is>
+      <c r="E254" t="n">
+        <v>367</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -12148,10 +11642,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>363.00</t>
-        </is>
+      <c r="E255" t="n">
+        <v>363</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -12194,10 +11686,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>368.00</t>
-        </is>
+      <c r="E256" t="n">
+        <v>368</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -12240,10 +11730,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>370.00</t>
-        </is>
+      <c r="E257" t="n">
+        <v>370</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -12286,10 +11774,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>354.00</t>
-        </is>
+      <c r="E258" t="n">
+        <v>354</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -12332,10 +11818,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>365.00</t>
-        </is>
+      <c r="E259" t="n">
+        <v>365</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -12378,10 +11862,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>363.00</t>
-        </is>
+      <c r="E260" t="n">
+        <v>363</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -12424,10 +11906,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>366.00</t>
-        </is>
+      <c r="E261" t="n">
+        <v>366</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -12470,10 +11950,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>355.00</t>
-        </is>
+      <c r="E262" t="n">
+        <v>355</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -12516,10 +11994,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>365.00</t>
-        </is>
+      <c r="E263" t="n">
+        <v>365</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -12562,10 +12038,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>359.00</t>
-        </is>
+      <c r="E264" t="n">
+        <v>359</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -12608,10 +12082,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>363.00</t>
-        </is>
+      <c r="E265" t="n">
+        <v>363</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -12654,10 +12126,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>359.00</t>
-        </is>
+      <c r="E266" t="n">
+        <v>359</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -12700,10 +12170,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>375.00</t>
-        </is>
+      <c r="E267" t="n">
+        <v>375</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -12746,10 +12214,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>368.00</t>
-        </is>
+      <c r="E268" t="n">
+        <v>368</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -12792,10 +12258,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>378.00</t>
-        </is>
+      <c r="E269" t="n">
+        <v>378</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -12838,10 +12302,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>362.00</t>
-        </is>
+      <c r="E270" t="n">
+        <v>362</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -12884,10 +12346,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>361.00</t>
-        </is>
+      <c r="E271" t="n">
+        <v>361</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -12930,10 +12390,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>367.00</t>
-        </is>
+      <c r="E272" t="n">
+        <v>367</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -12976,10 +12434,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>363.00</t>
-        </is>
+      <c r="E273" t="n">
+        <v>363</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -13022,10 +12478,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>373.00</t>
-        </is>
+      <c r="E274" t="n">
+        <v>373</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -13068,10 +12522,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>362.00</t>
-        </is>
+      <c r="E275" t="n">
+        <v>362</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -13114,10 +12566,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>360.00</t>
-        </is>
+      <c r="E276" t="n">
+        <v>360</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -13160,10 +12610,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>350.00</t>
-        </is>
+      <c r="E277" t="n">
+        <v>350</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -13206,10 +12654,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>362.00</t>
-        </is>
+      <c r="E278" t="n">
+        <v>362</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -13252,10 +12698,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E279" t="n">
+        <v>364</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -13298,10 +12742,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>368.00</t>
-        </is>
+      <c r="E280" t="n">
+        <v>368</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -13344,10 +12786,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>365.00</t>
-        </is>
+      <c r="E281" t="n">
+        <v>365</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -13390,10 +12830,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>358.00</t>
-        </is>
+      <c r="E282" t="n">
+        <v>358</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -13436,10 +12874,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>365.00</t>
-        </is>
+      <c r="E283" t="n">
+        <v>365</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -13482,10 +12918,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>350.00</t>
-        </is>
+      <c r="E284" t="n">
+        <v>350</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -13528,10 +12962,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>370.00</t>
-        </is>
+      <c r="E285" t="n">
+        <v>370</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -13574,10 +13006,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>369.00</t>
-        </is>
+      <c r="E286" t="n">
+        <v>369</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13620,10 +13050,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>367.00</t>
-        </is>
+      <c r="E287" t="n">
+        <v>367</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -13666,10 +13094,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>361.00</t>
-        </is>
+      <c r="E288" t="n">
+        <v>361</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -13712,10 +13138,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>367.00</t>
-        </is>
+      <c r="E289" t="n">
+        <v>367</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -13758,10 +13182,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>359.00</t>
-        </is>
+      <c r="E290" t="n">
+        <v>359</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -13804,10 +13226,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>360.00</t>
-        </is>
+      <c r="E291" t="n">
+        <v>360</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -13850,10 +13270,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>362.00</t>
-        </is>
+      <c r="E292" t="n">
+        <v>362</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -13896,10 +13314,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E293" t="n">
+        <v>364</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -13942,10 +13358,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>371.00</t>
-        </is>
+      <c r="E294" t="n">
+        <v>371</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -13988,10 +13402,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>357.00</t>
-        </is>
+      <c r="E295" t="n">
+        <v>357</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -14034,10 +13446,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>380.00</t>
-        </is>
+      <c r="E296" t="n">
+        <v>380</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -14080,10 +13490,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>360.00</t>
-        </is>
+      <c r="E297" t="n">
+        <v>360</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -14126,10 +13534,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>358.00</t>
-        </is>
+      <c r="E298" t="n">
+        <v>358</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -14172,10 +13578,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>357.00</t>
-        </is>
+      <c r="E299" t="n">
+        <v>357</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -14223,10 +13627,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>353.00</t>
-        </is>
+      <c r="E300" t="n">
+        <v>353</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -14269,10 +13671,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>368.00</t>
-        </is>
+      <c r="E301" t="n">
+        <v>368</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -14315,10 +13715,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>368.00</t>
-        </is>
+      <c r="E302" t="n">
+        <v>368</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -14361,10 +13759,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E303" t="n">
+        <v>364</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -14407,10 +13803,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>360.00</t>
-        </is>
+      <c r="E304" t="n">
+        <v>360</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -14453,10 +13847,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>359.00</t>
-        </is>
+      <c r="E305" t="n">
+        <v>359</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -14499,10 +13891,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E306" t="n">
+        <v>364</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -14545,10 +13935,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>374.00</t>
-        </is>
+      <c r="E307" t="n">
+        <v>374</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -14591,10 +13979,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E308" t="n">
+        <v>364</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -14637,10 +14023,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>361.00</t>
-        </is>
+      <c r="E309" t="n">
+        <v>361</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -14683,10 +14067,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>361.00</t>
-        </is>
+      <c r="E310" t="n">
+        <v>361</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -14729,10 +14111,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E311" t="n">
+        <v>364</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -14775,10 +14155,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>372.00</t>
-        </is>
+      <c r="E312" t="n">
+        <v>372</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -14821,10 +14199,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>362.00</t>
-        </is>
+      <c r="E313" t="n">
+        <v>362</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -14867,10 +14243,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>367.00</t>
-        </is>
+      <c r="E314" t="n">
+        <v>367</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -14913,10 +14287,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E315" t="n">
+        <v>364</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -14959,10 +14331,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>375.00</t>
-        </is>
+      <c r="E316" t="n">
+        <v>375</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -15005,10 +14375,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>351.00</t>
-        </is>
+      <c r="E317" t="n">
+        <v>351</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -15051,10 +14419,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>355.00</t>
-        </is>
+      <c r="E318" t="n">
+        <v>355</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -15097,10 +14463,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>367.00</t>
-        </is>
+      <c r="E319" t="n">
+        <v>367</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -15143,10 +14507,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>358.00</t>
-        </is>
+      <c r="E320" t="n">
+        <v>358</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -15189,10 +14551,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>371.00</t>
-        </is>
+      <c r="E321" t="n">
+        <v>371</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -15235,10 +14595,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>368.00</t>
-        </is>
+      <c r="E322" t="n">
+        <v>368</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -15281,10 +14639,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>357.00</t>
-        </is>
+      <c r="E323" t="n">
+        <v>357</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -15327,10 +14683,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E324" t="n">
+        <v>364</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -15373,10 +14727,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>365.00</t>
-        </is>
+      <c r="E325" t="n">
+        <v>365</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -15419,10 +14771,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>352.00</t>
-        </is>
+      <c r="E326" t="n">
+        <v>352</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -15465,10 +14815,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>364.00</t>
-        </is>
+      <c r="E327" t="n">
+        <v>364</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -15511,10 +14859,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>371.00</t>
-        </is>
+      <c r="E328" t="n">
+        <v>371</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -15557,10 +14903,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>358.00</t>
-        </is>
+      <c r="E329" t="n">
+        <v>358</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -15603,10 +14947,8 @@
           <t>电子信息</t>
         </is>
       </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>362.00</t>
-        </is>
+      <c r="E330" t="n">
+        <v>362</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
